--- a/05_基金及海外期貨/02_工作與需求項目/02_ETL轉檔BLGToDatamart/02_FutureETL相關資料/TableSQL.xlsx
+++ b/05_基金及海外期貨/02_工作與需求項目/02_ETL轉檔BLGToDatamart/02_FutureETL相關資料/TableSQL.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="290">
   <si>
     <t>productType</t>
   </si>
@@ -942,6 +942,14 @@
   </si>
   <si>
     <t>FUT_CONTRACT_DT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1436,7 +1444,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O59" sqref="O2:O59"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2495,7 +2503,7 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>16</v>
@@ -2523,7 +2531,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'PRODUCT_ID',  'String',  '',  ''NULL'',   'ProductID',  'String',  1,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'PRODUCT_ID',  'String',  '',  'NULL',   'ProductID',  'String',  1,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2538,7 +2546,7 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>20</v>
@@ -2566,7 +2574,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'PRODUCT_TYPE',  'String',  '',  ''NULL'',   'ProductType',  'String',  2,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'PRODUCT_TYPE',  'String',  '',  'NULL',   'ProductType',  'String',  2,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2581,7 +2589,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>71</v>
@@ -2609,7 +2617,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'CONTRACT_ID',  'String',  '',  ''NULL'',   'ContractID',  'String',  3,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'CONTRACT_ID',  'String',  '',  'NULL',   'ContractID',  'String',  3,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2624,7 +2632,7 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>281</v>
@@ -2652,7 +2660,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUHWA_CODE',  'String',  '',  ''NULL'',   'FuhwaCode',  'String',  4,  'N',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUHWA_CODE',  'String',  '',  'NULL',   'FuhwaCode',  'String',  4,  'N',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2667,7 +2675,7 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>93</v>
@@ -2695,7 +2703,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FLAGS',  'String',  '',  ''NULL'',   'Flags',  'String',  5,  'N',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FLAGS',  'String',  '',  'NULL',   'Flags',  'String',  5,  'N',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2712,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>88</v>
@@ -2740,7 +2748,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'SHORT_NAME',  'String',  'SECMASTER',  ''NULL'',   'shortName',  'String',  6,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'SHORT_NAME',  'String',  'SECMASTER',  'NULL',   'shortName',  'String',  6,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2757,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>91</v>
@@ -2785,7 +2793,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_LAST_TRADE_DT',  'Date',  'SECMASTER',  ''NULL'',   'LastTradeDay',  'Date',  7,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_LAST_TRADE_DT',  'Date',  'SECMASTER',  'NULL',   'LastTradeDay',  'Date',  7,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2802,7 +2810,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>92</v>
@@ -2830,7 +2838,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_DLV_DT_LAST',  'Date',  'SECMASTER',  ''NULL'',   'MatureDay',  'Date',  8,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_DLV_DT_LAST',  'Date',  'SECMASTER',  'NULL',   'MatureDay',  'Date',  8,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2847,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>34</v>
@@ -2875,7 +2883,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'UNDL_SPOT_TICKER',  'String',  'SECMASTER',  ''NULL'',   'UnderlySpotTicker',  'String',  9,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'UNDL_SPOT_TICKER',  'String',  'SECMASTER',  'NULL',   'UnderlySpotTicker',  'String',  9,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2890,7 +2898,7 @@
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>90</v>
@@ -2918,7 +2926,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_CONTRACT_DT_M',  'String',  '',  ''NULL'',   'ContractMonth',  'String',  10,  'N',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_CONTRACT_DT_M',  'String',  '',  'NULL',   'ContractMonth',  'String',  10,  'N',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2935,7 +2943,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>89</v>
@@ -2963,7 +2971,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_CONTRACT_DT',  'String',  'SECMASTER',  ''NULL'',   'ContractYear',  'String',  11,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'FUT_CONTRACT_DT',  'String',  'SECMASTER',  'NULL',   'ContractYear',  'String',  11,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2978,7 +2986,7 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>94</v>
@@ -3006,7 +3014,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'LAST_UPDATE',  'Datetime',  '',  ''NULL'',   'lastUpdate',  'Datetime',  12,  'N',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractDetail',  'LAST_UPDATE',  'Datetime',  '',  'NULL',   'lastUpdate',  'Datetime',  12,  'N',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3026,10 +3034,10 @@
         <v>61</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="H36" s="15">
         <v>1</v>
@@ -3051,7 +3059,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractList',  'FUT_CHAIN',  'String',  'SECMASTER',  '合約清單',   ''NULL'',  ''NULL'',  1,  'Y',  'N',  'N',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractList',  'FUT_CHAIN',  'String',  'SECMASTER',  '合約清單',   'NULL',  'NULL',  1,  'Y',  'N',  'N',  'N',  'N' )</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3195,7 +3203,7 @@
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>16</v>
@@ -3223,7 +3231,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PRODUCT_ID',  'String',  '',  ''NULL'',   'ProductID',  'String',  1,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PRODUCT_ID',  'String',  '',  'NULL',   'ProductID',  'String',  1,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3238,7 +3246,7 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>20</v>
@@ -3266,7 +3274,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PRODUCT_TYPE',  'String',  '',  ''NULL'',   'ProductType',  'String',  2,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PRODUCT_TYPE',  'String',  '',  'NULL',   'ProductType',  'String',  2,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3281,7 +3289,7 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>71</v>
@@ -3309,7 +3317,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'CONTRACTID',  'String',  '',  ''NULL'',   'ContractID',  'String',  3,  'N',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'CONTRACTID',  'String',  '',  'NULL',   'ContractID',  'String',  3,  'N',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3326,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>73</v>
@@ -3354,7 +3362,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_DT',  'Date',  'CLOSINGVALUES',  ''NULL'',   'ddate',  'Date',  4,  'Y',  'Y',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_DT',  'Date',  'CLOSINGVALUES',  'NULL',   'ddate',  'Date',  4,  'Y',  'Y',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3371,7 +3379,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>76</v>
@@ -3399,7 +3407,7 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_CLOSE',  'Number',  'CLOSINGVALUES',  ''NULL'',   'lastPrice',  'Number',  6,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_CLOSE',  'Number',  'CLOSINGVALUES',  'NULL',   'lastPrice',  'Number',  6,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3416,7 +3424,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>78</v>
@@ -3444,7 +3452,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_HIGH',  'Number',  'CLOSINGVALUES',  ''NULL'',   'highPrice',  'Number',  7,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_HIGH',  'Number',  'CLOSINGVALUES',  'NULL',   'highPrice',  'Number',  7,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3461,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>80</v>
@@ -3489,7 +3497,7 @@
       </c>
       <c r="O46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_LOW',  'Number',  'CLOSINGVALUES',  ''NULL'',   'lowPrice',  'Number',  8,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_YEST_LOW',  'Number',  'CLOSINGVALUES',  'NULL',   'lowPrice',  'Number',  8,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3506,7 +3514,7 @@
         <v>75</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>82</v>
@@ -3534,7 +3542,7 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_VOLUME_1D',  'Number',  'CLOSINGVALUES',  ''NULL'',   'lastVolume',  'Number',  9,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'PX_VOLUME_1D',  'Number',  'CLOSINGVALUES',  'NULL',   'lastVolume',  'Number',  9,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3551,7 +3559,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>135</v>
@@ -3579,7 +3587,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'OPEN_INT',  'Number',  'CLOSINGVALUES',  ''NULL'',   'openPrice',  'Number',  10,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'OPEN_INT',  'Number',  'CLOSINGVALUES',  'NULL',   'openPrice',  'Number',  10,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3596,7 +3604,7 @@
         <v>75</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>140</v>
@@ -3624,7 +3632,7 @@
       </c>
       <c r="O49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'FUT_AGGTE_OPEN_INT',  'Number',  'CLOSINGVALUES',  ''NULL'',   'change1D',  'Number',  11,  'Y',  'N',  'Y',  'N',  'N' )</v>
+        <v xml:space="preserve"> insert into bloomberg.dbo.BlpFieldMapping ([productType], [blpField], [blpFieldType], [blpFTPCategory], [blpCName], [datamartField], [datamartFieldType], [iorder], [blpNeed], [isKey], [DBNeed], [OtherDBNeed], [NullNoUpdate]) Values (    'FuturesContractPrice',  'FUT_AGGTE_OPEN_INT',  'Number',  'CLOSINGVALUES',  'NULL',   'change1D',  'Number',  11,  'Y',  'N',  'Y',  'N',  'N' )</v>
       </c>
     </row>
     <row r="50" spans="1:15">
